--- a/System Analysis/WorkingRepository/Group1/FilterInformationFromERTMSTrackside.xlsx
+++ b/System Analysis/WorkingRepository/Group1/FilterInformationFromERTMSTrackside.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="135" windowWidth="14115" windowHeight="6720" activeTab="1"/>
@@ -14,7 +14,7 @@
     <sheet name="Exported Requirements" sheetId="5" r:id="rId5"/>
     <sheet name="Types" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -675,7 +675,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="15">
     <font>
       <sz val="11"/>
@@ -1009,6 +1009,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1038,12 +1044,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1134,7 +1134,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1169,7 +1168,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1345,25 +1343,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
     </row>
     <row r="2" spans="1:7" ht="15.75">
       <c r="A2" s="1"/>
@@ -1430,15 +1428,15 @@
     <row r="18" spans="1:5" ht="15.75">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:5" ht="15.75">
+    <row r="19" spans="1:5" ht="16.5">
       <c r="A19" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" ht="16.5">
       <c r="A20" s="3"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" ht="16.5">
       <c r="A21" s="3"/>
     </row>
     <row r="22" spans="1:5" ht="18.75">
@@ -1449,7 +1447,7 @@
     <row r="23" spans="1:5" ht="18.75">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" ht="16.5">
       <c r="A24" s="3" t="s">
         <v>58</v>
       </c>
@@ -1466,13 +1464,13 @@
       <c r="A27" s="4"/>
     </row>
     <row r="28" spans="1:5" ht="118.5" customHeight="1">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
     </row>
     <row r="29" spans="1:5" ht="15.75">
       <c r="A29" s="1"/>
@@ -1506,16 +1504,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1260" topLeftCell="A12" activePane="bottomLeft"/>
+      <pane ySplit="1260" topLeftCell="A63" activePane="bottomLeft"/>
       <selection activeCell="I1" sqref="I1:I1048576"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomLeft" activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1565,16 +1563,16 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="30" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="11" t="s">
@@ -1590,18 +1588,18 @@
         <v>22</v>
       </c>
       <c r="I2" s="11"/>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="30" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="29"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="11" t="s">
         <v>26</v>
       </c>
@@ -1615,15 +1613,15 @@
         <v>26</v>
       </c>
       <c r="I3" s="11"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
     </row>
     <row r="4" spans="1:11" ht="71.25" customHeight="1">
       <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="22" t="s">
+      <c r="B4" s="22" t="s">
         <v>85</v>
       </c>
+      <c r="C4" s="22"/>
       <c r="D4" s="14" t="s">
         <v>84</v>
       </c>
@@ -1645,10 +1643,10 @@
     </row>
     <row r="5" spans="1:11" ht="71.25" customHeight="1">
       <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="22" t="s">
+      <c r="B5" s="22" t="s">
         <v>99</v>
       </c>
+      <c r="C5" s="22"/>
       <c r="D5" s="14" t="s">
         <v>100</v>
       </c>
@@ -1670,10 +1668,10 @@
     </row>
     <row r="6" spans="1:11" ht="71.25" customHeight="1">
       <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="20" t="s">
+      <c r="B6" s="20" t="s">
         <v>96</v>
       </c>
+      <c r="C6" s="20"/>
       <c r="D6" s="14" t="s">
         <v>100</v>
       </c>
@@ -1706,10 +1704,10 @@
       <c r="A8" s="25">
         <v>1</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="24" t="s">
+      <c r="B8" s="24" t="s">
         <v>63</v>
       </c>
+      <c r="C8" s="24"/>
       <c r="D8" s="25" t="s">
         <v>68</v>
       </c>
@@ -1820,21 +1818,21 @@
         <v>81</v>
       </c>
       <c r="G14" s="14"/>
-      <c r="H14" s="37" t="s">
+      <c r="H14" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="I14" s="37" t="s">
+      <c r="I14" s="27" t="s">
         <v>83</v>
       </c>
       <c r="J14" s="14"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" ht="26.25">
       <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="22" t="s">
+      <c r="B15" s="22" t="s">
         <v>103</v>
       </c>
+      <c r="C15" s="22"/>
       <c r="D15" s="14" t="s">
         <v>100</v>
       </c>
@@ -1856,10 +1854,10 @@
       <c r="A16" s="25">
         <v>2</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="24" t="s">
+      <c r="B16" s="24" t="s">
         <v>60</v>
       </c>
+      <c r="C16" s="24"/>
       <c r="D16" s="25" t="s">
         <v>68</v>
       </c>
@@ -1962,10 +1960,10 @@
       <c r="A22" s="25">
         <v>3</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="24" t="s">
+      <c r="B22" s="24" t="s">
         <v>61</v>
       </c>
+      <c r="C22" s="24"/>
       <c r="D22" s="25" t="s">
         <v>68</v>
       </c>
@@ -1993,7 +1991,7 @@
       </c>
       <c r="F23" s="20"/>
       <c r="G23" s="14"/>
-      <c r="H23" s="36" t="s">
+      <c r="H23" s="26" t="s">
         <v>111</v>
       </c>
       <c r="I23" s="20" t="s">
@@ -2097,7 +2095,7 @@
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
       <c r="G29" s="14"/>
-      <c r="H29" s="36" t="s">
+      <c r="H29" s="26" t="s">
         <v>138</v>
       </c>
       <c r="I29" s="20" t="s">
@@ -2365,14 +2363,14 @@
       <c r="J44" s="14"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" ht="75">
+    <row r="45" spans="1:11" ht="90">
       <c r="A45" s="25">
         <v>4</v>
       </c>
-      <c r="B45" s="25"/>
-      <c r="C45" s="24" t="s">
+      <c r="B45" s="24" t="s">
         <v>71</v>
       </c>
+      <c r="C45" s="24"/>
       <c r="D45" s="25" t="s">
         <v>68</v>
       </c>
@@ -2401,14 +2399,14 @@
       <c r="J46" s="14"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" ht="45">
       <c r="A47" s="14">
         <v>5</v>
       </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="20" t="s">
+      <c r="B47" s="20" t="s">
         <v>62</v>
       </c>
+      <c r="C47" s="20"/>
       <c r="D47" s="14" t="s">
         <v>68</v>
       </c>
@@ -2435,14 +2433,14 @@
       <c r="J48" s="14"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" ht="30">
       <c r="A49" s="14">
         <v>6</v>
       </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="20" t="s">
+      <c r="B49" s="20" t="s">
         <v>64</v>
       </c>
+      <c r="C49" s="20"/>
       <c r="D49" s="14" t="s">
         <v>68</v>
       </c>
@@ -2469,14 +2467,14 @@
       <c r="J50" s="14"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" ht="60">
       <c r="A51" s="14">
         <v>7</v>
       </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="20" t="s">
+      <c r="B51" s="20" t="s">
         <v>65</v>
       </c>
+      <c r="C51" s="20"/>
       <c r="D51" s="14" t="s">
         <v>68</v>
       </c>
@@ -2507,10 +2505,10 @@
       <c r="A53" s="25">
         <v>8</v>
       </c>
-      <c r="B53" s="25"/>
-      <c r="C53" s="24" t="s">
+      <c r="B53" s="24" t="s">
         <v>66</v>
       </c>
+      <c r="C53" s="24"/>
       <c r="D53" s="25" t="s">
         <v>68</v>
       </c>
@@ -2713,10 +2711,10 @@
       <c r="A65" s="25">
         <v>9</v>
       </c>
-      <c r="B65" s="25"/>
-      <c r="C65" s="24" t="s">
+      <c r="B65" s="24" t="s">
         <v>67</v>
       </c>
+      <c r="C65" s="24"/>
       <c r="D65" s="25" t="s">
         <v>68</v>
       </c>
@@ -2760,7 +2758,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2806,28 +2804,28 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="30" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="30" t="s">
         <v>25</v>
       </c>
       <c r="I2" s="12" t="s">
@@ -2835,31 +2833,31 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
       <c r="I3" s="12" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
       <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9">
@@ -3031,7 +3029,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3041,73 +3039,73 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="34" t="s">
         <v>37</v>
       </c>
       <c r="H1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="L1" s="34" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
       <c r="H2" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
     </row>
     <row r="3" spans="1:12" ht="31.5">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="30" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="30" t="s">
         <v>23</v>
       </c>
       <c r="F3" s="10" t="s">
@@ -3122,24 +3120,24 @@
       <c r="I3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="30" t="s">
+      <c r="J3" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="28" t="s">
+      <c r="K3" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="28" t="s">
+      <c r="L3" s="30" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
       <c r="F4" s="10" t="s">
         <v>26</v>
       </c>
@@ -3152,9 +3150,9 @@
       <c r="I4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="31"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="14"/>
@@ -3312,6 +3310,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="G1:G2"/>
@@ -3319,24 +3328,13 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3377,25 +3375,25 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="30" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="30" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="12" t="s">
@@ -3403,29 +3401,29 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="31.5" customHeight="1">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
       <c r="H3" s="12" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
       <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8">
@@ -3582,7 +3580,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3596,28 +3594,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="34" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="30" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
     </row>
     <row r="5" spans="1:5" ht="15.75">
       <c r="A5" s="17" t="s">
@@ -3625,21 +3623,21 @@
       </c>
       <c r="B5" s="17"/>
     </row>
-    <row r="6" spans="1:5" ht="15.75">
+    <row r="6" spans="1:5" ht="16.5">
       <c r="A6" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B6" s="17"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75">
+    <row r="7" spans="1:5" ht="16.5">
       <c r="A7" s="17" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="17"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="15.75">
+    <row r="8" spans="1:5" ht="16.5">
       <c r="A8" s="17" t="s">
         <v>41</v>
       </c>
@@ -3648,7 +3646,7 @@
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75">
+    <row r="9" spans="1:5" ht="16.5">
       <c r="A9" s="17" t="s">
         <v>44</v>
       </c>
@@ -3657,7 +3655,7 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="15.75">
+    <row r="10" spans="1:5" ht="16.5">
       <c r="A10" s="17" t="s">
         <v>46</v>
       </c>
@@ -3675,7 +3673,7 @@
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" ht="15.75">
+    <row r="12" spans="1:5" ht="16.5">
       <c r="A12" s="17" t="s">
         <v>50</v>
       </c>
@@ -3693,7 +3691,7 @@
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" ht="16.5">
       <c r="E14" s="3"/>
     </row>
   </sheetData>

--- a/System Analysis/WorkingRepository/Group1/FilterInformationFromERTMSTrackside.xlsx
+++ b/System Analysis/WorkingRepository/Group1/FilterInformationFromERTMSTrackside.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="14115" windowHeight="6720" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="14115" windowHeight="6720"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="176">
   <si>
     <t>Template for System Analysis</t>
   </si>
@@ -670,6 +670,12 @@
   <si>
     <t xml:space="preserve">3.16.3.3.3.1
 </t>
+  </si>
+  <si>
+    <t>At implementation level, the interactions of the « filter information from ERTMS trackside » function with the other macro functions of ETCS kernel are represented in the Internal Block Diagram shown below.</t>
+  </si>
+  <si>
+    <t>20/11/2013 - v4 - added SysML diagrams</t>
   </si>
 </sst>
 </file>
@@ -936,7 +942,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1045,6 +1051,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1057,6 +1072,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>7</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>173151</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>3338109</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Image 3" descr="FilterInformationFromERTMSTrackside_Interfaces.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7" y="7343787"/>
+          <a:ext cx="5507144" cy="3328572"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1344,10 +1402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1418,88 +1476,119 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" ht="18.75">
-      <c r="A17" s="2" t="s">
+      <c r="A16" s="19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15.75">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" ht="18.75">
+      <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" ht="16.5">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:13" ht="15.75">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" ht="16.5">
+      <c r="A20" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16.5">
-      <c r="A20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" ht="16.5">
+    <row r="21" spans="1:13" ht="16.5">
       <c r="A21" s="3"/>
     </row>
-    <row r="22" spans="1:5" ht="18.75">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:13" ht="16.5">
+      <c r="A22" s="3"/>
+    </row>
+    <row r="23" spans="1:13" ht="18.75">
+      <c r="A23" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="18.75">
-      <c r="A23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" ht="16.5">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:13" ht="18.75">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:13" ht="16.5">
+      <c r="A25" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" ht="18.75">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:13" ht="15.75">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:13" ht="18.75">
+      <c r="A27" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="18.75">
-      <c r="A27" s="4"/>
-    </row>
-    <row r="28" spans="1:5" ht="118.5" customHeight="1">
-      <c r="A28" s="29" t="s">
+    <row r="28" spans="1:13" ht="18.75">
+      <c r="A28" s="4"/>
+    </row>
+    <row r="29" spans="1:13" ht="118.5" customHeight="1">
+      <c r="A29" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-    </row>
-    <row r="29" spans="1:5" ht="15.75">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" ht="15.75">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" ht="18.75">
-      <c r="A31" s="2" t="s">
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+    </row>
+    <row r="30" spans="1:13" ht="69.75" customHeight="1">
+      <c r="A30" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+    </row>
+    <row r="31" spans="1:13" ht="263.25" customHeight="1">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:13" ht="15.75">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:1" ht="18.75">
+      <c r="A33" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A30:E30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1510,7 +1599,7 @@
   </sheetPr>
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1260" topLeftCell="A63" activePane="bottomLeft"/>
       <selection activeCell="I1" sqref="I1:I1048576"/>
       <selection pane="bottomLeft" activeCell="C69" sqref="C69"/>
@@ -3310,17 +3399,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="G1:G2"/>
@@ -3328,6 +3406,17 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/System Analysis/WorkingRepository/Group1/FilterInformationFromERTMSTrackside.xlsx
+++ b/System Analysis/WorkingRepository/Group1/FilterInformationFromERTMSTrackside.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="14115" windowHeight="6720"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="14115" windowHeight="6720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="1" r:id="rId1"/>
@@ -1021,6 +1021,15 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1049,15 +1058,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1106,6 +1106,87 @@
         <a:xfrm>
           <a:off x="7" y="7343787"/>
           <a:ext cx="5507144" cy="3328572"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1999208</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>8976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1" descr="FilterInformationFromERTMSTrackside_IBD.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="47405925"/>
+          <a:ext cx="8342858" cy="4390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>56547</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>694070</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>95358</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2" descr="BuildBGMsgAndUseBGAsRefLoc.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="52224972"/>
+          <a:ext cx="10047620" cy="3848811"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1404,22 +1485,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:7" ht="15.75">
       <c r="A2" s="1"/>
@@ -1527,37 +1608,37 @@
       <c r="A28" s="4"/>
     </row>
     <row r="29" spans="1:13" ht="118.5" customHeight="1">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="40"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
     </row>
     <row r="30" spans="1:13" ht="69.75" customHeight="1">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
     </row>
     <row r="31" spans="1:13" ht="263.25" customHeight="1">
       <c r="A31" s="1"/>
@@ -1599,10 +1680,10 @@
   </sheetPr>
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1260" topLeftCell="A63" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1260" topLeftCell="A94" activePane="bottomLeft"/>
       <selection activeCell="I1" sqref="I1:I1048576"/>
-      <selection pane="bottomLeft" activeCell="C69" sqref="C69"/>
+      <selection pane="bottomLeft" activeCell="H105" sqref="H105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1652,16 +1733,16 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="33" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="11" t="s">
@@ -1677,18 +1758,18 @@
         <v>22</v>
       </c>
       <c r="I2" s="11"/>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="33" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="31"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="34"/>
       <c r="E3" s="11" t="s">
         <v>26</v>
       </c>
@@ -1702,8 +1783,8 @@
         <v>26</v>
       </c>
       <c r="I3" s="11"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
     </row>
     <row r="4" spans="1:11" ht="71.25" customHeight="1">
       <c r="A4" s="14"/>
@@ -2843,6 +2924,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2893,28 +2975,28 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="33" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="33" t="s">
         <v>25</v>
       </c>
       <c r="I2" s="12" t="s">
@@ -2922,31 +3004,31 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
       <c r="I3" s="12" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
       <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9">
@@ -3128,73 +3210,73 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="37" t="s">
         <v>37</v>
       </c>
       <c r="H1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="L1" s="37" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
       <c r="H2" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="35"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
     </row>
     <row r="3" spans="1:12" ht="31.5">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="33" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="33" t="s">
         <v>23</v>
       </c>
       <c r="F3" s="10" t="s">
@@ -3209,24 +3291,24 @@
       <c r="I3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="J3" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="30" t="s">
+      <c r="K3" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="30" t="s">
+      <c r="L3" s="33" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
       <c r="F4" s="10" t="s">
         <v>26</v>
       </c>
@@ -3239,9 +3321,9 @@
       <c r="I4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="33"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="14"/>
@@ -3399,6 +3481,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="G1:G2"/>
@@ -3406,17 +3499,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3464,25 +3546,25 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="33" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="33" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="12" t="s">
@@ -3490,29 +3572,29 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="31.5" customHeight="1">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
       <c r="H3" s="12" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
       <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8">
@@ -3683,28 +3765,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="37" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="33" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
     </row>
     <row r="5" spans="1:5" ht="15.75">
       <c r="A5" s="17" t="s">

--- a/System Analysis/WorkingRepository/Group1/FilterInformationFromERTMSTrackside.xlsx
+++ b/System Analysis/WorkingRepository/Group1/FilterInformationFromERTMSTrackside.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="177">
   <si>
     <t>Template for System Analysis</t>
   </si>
@@ -676,6 +676,9 @@
   </si>
   <si>
     <t>20/11/2013 - v4 - added SysML diagrams</t>
+  </si>
+  <si>
+    <t>DecodedEurobalise</t>
   </si>
 </sst>
 </file>
@@ -1079,15 +1082,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>7</xdr:colOff>
+      <xdr:colOff>361957</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>9537</xdr:rowOff>
+      <xdr:rowOff>28587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>173151</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>3338109</xdr:rowOff>
+      <xdr:colOff>535100</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>13884</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1104,8 +1107,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7" y="7343787"/>
-          <a:ext cx="5507144" cy="3328572"/>
+          <a:off x="361957" y="8448687"/>
+          <a:ext cx="5507143" cy="3328572"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1124,13 +1127,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>162438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1999208</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>8976</xdr:rowOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>37037</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1147,8 +1150,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="47405925"/>
-          <a:ext cx="8342858" cy="4390476"/>
+          <a:off x="0" y="47568363"/>
+          <a:ext cx="8342858" cy="4065599"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1160,13 +1163,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>601378</xdr:colOff>
       <xdr:row>93</xdr:row>
       <xdr:rowOff>56547</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>694070</xdr:colOff>
+      <xdr:colOff>92692</xdr:colOff>
       <xdr:row>113</xdr:row>
       <xdr:rowOff>95358</xdr:rowOff>
     </xdr:to>
@@ -1185,8 +1188,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="52224972"/>
-          <a:ext cx="10047620" cy="3848811"/>
+          <a:off x="601378" y="52224972"/>
+          <a:ext cx="8844864" cy="3848811"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1486,7 +1489,7 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1680,10 +1683,10 @@
   </sheetPr>
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1260" topLeftCell="A94" activePane="bottomLeft"/>
       <selection activeCell="I1" sqref="I1:I1048576"/>
-      <selection pane="bottomLeft" activeCell="H105" sqref="H105"/>
+      <selection pane="bottomLeft" activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2032,7 +2035,7 @@
         <v>68</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>79</v>
+        <v>176</v>
       </c>
       <c r="F16" s="24" t="s">
         <v>88</v>
@@ -3481,17 +3484,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="G1:G2"/>
@@ -3499,6 +3491,17 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/System Analysis/WorkingRepository/Group1/FilterInformationFromERTMSTrackside.xlsx
+++ b/System Analysis/WorkingRepository/Group1/FilterInformationFromERTMSTrackside.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="14115" windowHeight="6720" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="14115" windowHeight="6720"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="177">
-  <si>
-    <t>Template for System Analysis</t>
-  </si>
   <si>
     <t>Authors:</t>
   </si>
@@ -227,20 +224,6 @@
   </si>
   <si>
     <t>15/11/2013 – v3 – version for review</t>
-  </si>
-  <si>
-    <r>
-      <t>•</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>                    SysML model</t>
-    </r>
   </si>
   <si>
     <t>ETCS trainborne equipment can receive ETCS information from Eurobalise, Euroloop or GSM-R depending on ETCS level implemented on a given infrastucture. This function manages the decoding of Eurobalise telegrams, Euroloop messages and Euroradio messages and provide packets and associated variables to the application.</t>
@@ -680,11 +663,37 @@
   <si>
     <t>DecodedEurobalise</t>
   </si>
+  <si>
+    <t>Filter information from ERTMS trackside</t>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>SysML model</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="15">
     <font>
       <sz val="11"/>
@@ -1127,13 +1136,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>162438</xdr:rowOff>
+      <xdr:rowOff>133863</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1999208</xdr:colOff>
       <xdr:row>90</xdr:row>
-      <xdr:rowOff>37037</xdr:rowOff>
+      <xdr:rowOff>8462</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1150,7 +1159,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="47568363"/>
+          <a:off x="0" y="47539788"/>
           <a:ext cx="8342858" cy="4065599"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1276,6 +1285,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1310,6 +1320,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1485,18 +1496,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5">
       <c r="A1" s="31" t="s">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -1516,7 +1527,7 @@
     </row>
     <row r="5" spans="1:7" ht="18.75">
       <c r="A5" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75">
@@ -1524,7 +1535,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75">
       <c r="A7" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75">
@@ -1532,7 +1543,7 @@
     </row>
     <row r="9" spans="1:7" ht="18.75">
       <c r="A9" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75">
@@ -1540,7 +1551,7 @@
     </row>
     <row r="11" spans="1:7" ht="15.75">
       <c r="A11" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75">
@@ -1548,7 +1559,7 @@
     </row>
     <row r="13" spans="1:7" ht="18.75">
       <c r="A13" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75">
@@ -1556,12 +1567,12 @@
     </row>
     <row r="15" spans="1:7" ht="15.75">
       <c r="A15" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75">
       <c r="A16" s="19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75">
@@ -1569,42 +1580,43 @@
     </row>
     <row r="18" spans="1:13" ht="18.75">
       <c r="A18" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:13" ht="16.5">
+    <row r="20" spans="1:13" ht="15.75">
       <c r="A20" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="16.5">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="3"/>
     </row>
-    <row r="22" spans="1:13" ht="16.5">
+    <row r="22" spans="1:13">
       <c r="A22" s="3"/>
     </row>
     <row r="23" spans="1:13" ht="18.75">
       <c r="A23" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="18.75">
       <c r="A24" s="2"/>
     </row>
-    <row r="25" spans="1:13" ht="16.5">
+    <row r="25" spans="1:13" ht="15.75">
       <c r="A25" s="3" t="s">
-        <v>58</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="B25" s="3"/>
     </row>
     <row r="26" spans="1:13" ht="15.75">
       <c r="A26" s="1"/>
     </row>
     <row r="27" spans="1:13" ht="18.75">
       <c r="A27" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="18.75">
@@ -1612,7 +1624,7 @@
     </row>
     <row r="29" spans="1:13" ht="118.5" customHeight="1">
       <c r="A29" s="32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -1628,7 +1640,7 @@
     </row>
     <row r="30" spans="1:13" ht="69.75" customHeight="1">
       <c r="A30" s="32" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B30" s="32"/>
       <c r="C30" s="32"/>
@@ -1651,17 +1663,17 @@
     </row>
     <row r="33" spans="1:1" ht="18.75">
       <c r="A33" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1677,14 +1689,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1260" topLeftCell="A94" activePane="bottomLeft"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1260" topLeftCell="A64" activePane="bottomLeft"/>
       <selection activeCell="I1" sqref="I1:I1048576"/>
       <selection pane="bottomLeft" activeCell="A99" sqref="A99"/>
     </sheetView>
@@ -1702,70 +1714,70 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1">
       <c r="A1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="C1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75">
       <c r="A2" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="35" t="s">
+      <c r="D2" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>33</v>
-      </c>
       <c r="F2" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I2" s="11"/>
       <c r="J2" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="33" t="s">
         <v>24</v>
-      </c>
-      <c r="K2" s="33" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75">
@@ -1774,16 +1786,16 @@
       <c r="C3" s="36"/>
       <c r="D3" s="34"/>
       <c r="E3" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="34"/>
@@ -1792,72 +1804,72 @@
     <row r="4" spans="1:11" ht="71.25" customHeight="1">
       <c r="A4" s="14"/>
       <c r="B4" s="22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="20"/>
       <c r="H4" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J4" s="14"/>
       <c r="K4" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="71.25" customHeight="1">
       <c r="A5" s="14"/>
       <c r="B5" s="22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J5" s="14"/>
       <c r="K5" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="71.25" customHeight="1">
       <c r="A6" s="14"/>
       <c r="B6" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E6" s="20"/>
       <c r="F6" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
       <c r="I6" s="20"/>
       <c r="J6" s="14"/>
       <c r="K6" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1878,17 +1890,17 @@
         <v>1</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G8" s="25"/>
       <c r="H8" s="24"/>
@@ -1897,7 +1909,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="73.5" customHeight="1">
@@ -1906,12 +1918,12 @@
       <c r="C9" s="20"/>
       <c r="D9" s="14"/>
       <c r="E9" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="14"/>
       <c r="H9" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="14"/>
@@ -1926,10 +1938,10 @@
       <c r="F10" s="20"/>
       <c r="G10" s="14"/>
       <c r="H10" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J10" s="14"/>
       <c r="K10" s="20"/>
@@ -1943,7 +1955,7 @@
       <c r="F11" s="20"/>
       <c r="G11" s="14"/>
       <c r="H11" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="14"/>
@@ -1958,7 +1970,7 @@
       <c r="F12" s="20"/>
       <c r="G12" s="14"/>
       <c r="H12" s="20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="14"/>
@@ -1973,7 +1985,7 @@
       <c r="F13" s="20"/>
       <c r="G13" s="14"/>
       <c r="H13" s="20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="14"/>
@@ -1981,21 +1993,21 @@
     </row>
     <row r="14" spans="1:11" ht="75">
       <c r="A14" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="20"/>
       <c r="D14" s="14"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I14" s="27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J14" s="14"/>
       <c r="K14" s="20"/>
@@ -2003,24 +2015,24 @@
     <row r="15" spans="1:11" ht="26.25">
       <c r="A15" s="14"/>
       <c r="B15" s="22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
       <c r="J15" s="14"/>
       <c r="K15" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="45">
@@ -2028,17 +2040,17 @@
         <v>2</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="24"/>
@@ -2047,7 +2059,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="45">
@@ -2059,7 +2071,7 @@
       <c r="F17" s="20"/>
       <c r="G17" s="14"/>
       <c r="H17" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="14"/>
@@ -2071,12 +2083,12 @@
       <c r="C18" s="20"/>
       <c r="D18" s="14"/>
       <c r="E18" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="14"/>
       <c r="H18" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I18" s="20"/>
       <c r="J18" s="14"/>
@@ -2090,7 +2102,7 @@
       <c r="E19" s="20"/>
       <c r="G19" s="14"/>
       <c r="H19" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J19" s="14"/>
       <c r="K19" s="20"/>
@@ -2101,15 +2113,15 @@
       <c r="C20" s="20"/>
       <c r="D20" s="14"/>
       <c r="E20" s="20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F20" s="20"/>
       <c r="G20" s="14"/>
       <c r="H20" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I20" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J20" s="14"/>
       <c r="K20" s="20"/>
@@ -2123,7 +2135,7 @@
       <c r="F21" s="20"/>
       <c r="G21" s="14"/>
       <c r="H21" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I21" s="20"/>
       <c r="J21" s="14"/>
@@ -2134,14 +2146,14 @@
         <v>3</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C22" s="24"/>
       <c r="D22" s="25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F22" s="24"/>
       <c r="G22" s="25"/>
@@ -2151,7 +2163,7 @@
         <v>1</v>
       </c>
       <c r="K22" s="24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="75">
@@ -2160,15 +2172,15 @@
       <c r="C23" s="20"/>
       <c r="D23" s="14"/>
       <c r="E23" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F23" s="20"/>
       <c r="G23" s="14"/>
       <c r="H23" s="26" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I23" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J23" s="14"/>
       <c r="K23" s="20"/>
@@ -2179,12 +2191,12 @@
       <c r="C24" s="20"/>
       <c r="D24" s="14"/>
       <c r="E24" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F24" s="20"/>
       <c r="G24" s="14"/>
       <c r="H24" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I24" s="20"/>
       <c r="J24" s="14"/>
@@ -2199,10 +2211,10 @@
       <c r="F25" s="20"/>
       <c r="G25" s="14"/>
       <c r="H25" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I25" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J25" s="14"/>
       <c r="K25" s="20"/>
@@ -2216,10 +2228,10 @@
       <c r="F26" s="20"/>
       <c r="G26" s="14"/>
       <c r="H26" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I26" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J26" s="14"/>
       <c r="K26" s="20"/>
@@ -2231,14 +2243,14 @@
       <c r="D27" s="14"/>
       <c r="E27" s="20"/>
       <c r="F27" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G27" s="14"/>
       <c r="H27" s="20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I27" s="20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J27" s="14"/>
       <c r="K27" s="20"/>
@@ -2252,10 +2264,10 @@
       <c r="F28" s="20"/>
       <c r="G28" s="14"/>
       <c r="H28" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I28" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J28" s="14"/>
       <c r="K28" s="20"/>
@@ -2269,10 +2281,10 @@
       <c r="F29" s="20"/>
       <c r="G29" s="14"/>
       <c r="H29" s="26" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I29" s="20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J29" s="14"/>
       <c r="K29" s="20"/>
@@ -2286,7 +2298,7 @@
       <c r="F30" s="20"/>
       <c r="G30" s="14"/>
       <c r="H30" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I30" s="20"/>
       <c r="J30" s="14"/>
@@ -2301,7 +2313,7 @@
       <c r="F31" s="20"/>
       <c r="G31" s="14"/>
       <c r="H31" s="20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I31" s="20"/>
       <c r="J31" s="14"/>
@@ -2316,7 +2328,7 @@
       <c r="F32" s="20"/>
       <c r="G32" s="14"/>
       <c r="H32" s="20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I32" s="20"/>
       <c r="J32" s="14"/>
@@ -2331,10 +2343,10 @@
       <c r="F33" s="20"/>
       <c r="G33" s="14"/>
       <c r="H33" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="I33" s="20" t="s">
         <v>162</v>
-      </c>
-      <c r="I33" s="20" t="s">
-        <v>164</v>
       </c>
       <c r="J33" s="14"/>
       <c r="K33" s="20"/>
@@ -2348,10 +2360,10 @@
       <c r="F34" s="20"/>
       <c r="G34" s="14"/>
       <c r="H34" s="20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I34" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J34" s="14"/>
       <c r="K34" s="20"/>
@@ -2363,14 +2375,14 @@
       <c r="D35" s="14"/>
       <c r="E35" s="20"/>
       <c r="F35" s="20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G35" s="14"/>
       <c r="H35" s="20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I35" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J35" s="14"/>
       <c r="K35" s="20"/>
@@ -2382,14 +2394,14 @@
       <c r="D36" s="14"/>
       <c r="E36" s="20"/>
       <c r="F36" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G36" s="14"/>
       <c r="H36" s="20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I36" s="20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J36" s="14"/>
       <c r="K36" s="20"/>
@@ -2401,14 +2413,14 @@
       <c r="D37" s="14"/>
       <c r="E37" s="20"/>
       <c r="F37" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G37" s="14"/>
       <c r="H37" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I37" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J37" s="14"/>
       <c r="K37" s="20"/>
@@ -2420,14 +2432,14 @@
       <c r="D38" s="14"/>
       <c r="E38" s="20"/>
       <c r="F38" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G38" s="14"/>
       <c r="H38" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I38" s="20" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J38" s="14"/>
       <c r="K38" s="20"/>
@@ -2441,10 +2453,10 @@
       <c r="F39" s="20"/>
       <c r="G39" s="14"/>
       <c r="H39" s="20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I39" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J39" s="14"/>
       <c r="K39" s="20"/>
@@ -2458,10 +2470,10 @@
       <c r="F40" s="20"/>
       <c r="G40" s="14"/>
       <c r="H40" s="20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I40" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J40" s="14"/>
       <c r="K40" s="20"/>
@@ -2473,14 +2485,14 @@
       <c r="D41" s="14"/>
       <c r="E41" s="20"/>
       <c r="F41" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G41" s="14"/>
       <c r="H41" s="20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I41" s="20" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J41" s="14"/>
       <c r="K41" s="20"/>
@@ -2492,14 +2504,14 @@
       <c r="D42" s="14"/>
       <c r="E42" s="20"/>
       <c r="F42" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G42" s="14"/>
       <c r="H42" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I42" s="20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J42" s="14"/>
       <c r="K42" s="20"/>
@@ -2511,14 +2523,14 @@
       <c r="D43" s="14"/>
       <c r="E43" s="20"/>
       <c r="F43" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G43" s="14"/>
       <c r="H43" s="20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I43" s="20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J43" s="14"/>
       <c r="K43" s="20"/>
@@ -2541,11 +2553,11 @@
         <v>4</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C45" s="24"/>
       <c r="D45" s="25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E45" s="24"/>
       <c r="F45" s="24"/>
@@ -2556,7 +2568,7 @@
         <v>1</v>
       </c>
       <c r="K45" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2577,11 +2589,11 @@
         <v>5</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C47" s="20"/>
       <c r="D47" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E47" s="20"/>
       <c r="F47" s="20"/>
@@ -2590,7 +2602,7 @@
       <c r="I47" s="20"/>
       <c r="J47" s="14"/>
       <c r="K47" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2611,11 +2623,11 @@
         <v>6</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C49" s="20"/>
       <c r="D49" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E49" s="20"/>
       <c r="F49" s="20"/>
@@ -2624,7 +2636,7 @@
       <c r="I49" s="20"/>
       <c r="J49" s="14"/>
       <c r="K49" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2645,11 +2657,11 @@
         <v>7</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C51" s="20"/>
       <c r="D51" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E51" s="20"/>
       <c r="F51" s="20"/>
@@ -2658,7 +2670,7 @@
       <c r="I51" s="20"/>
       <c r="J51" s="14"/>
       <c r="K51" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2679,14 +2691,14 @@
         <v>8</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C53" s="24"/>
       <c r="D53" s="25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E53" s="24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F53" s="24"/>
       <c r="G53" s="25"/>
@@ -2696,7 +2708,7 @@
         <v>1</v>
       </c>
       <c r="K53" s="24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="105">
@@ -2708,7 +2720,7 @@
       <c r="F54" s="20"/>
       <c r="G54" s="14"/>
       <c r="H54" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I54" s="20"/>
       <c r="J54" s="14"/>
@@ -2721,11 +2733,11 @@
       <c r="D55" s="14"/>
       <c r="E55" s="20"/>
       <c r="F55" s="20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G55" s="14"/>
       <c r="H55" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I55" s="20"/>
       <c r="J55" s="14"/>
@@ -2740,10 +2752,10 @@
       <c r="F56" s="20"/>
       <c r="G56" s="14"/>
       <c r="H56" s="20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I56" s="20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J56" s="14"/>
       <c r="K56" s="20"/>
@@ -2757,10 +2769,10 @@
       <c r="F57" s="20"/>
       <c r="G57" s="14"/>
       <c r="H57" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I57" s="20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J57" s="14"/>
       <c r="K57" s="20"/>
@@ -2774,10 +2786,10 @@
       <c r="F58" s="20"/>
       <c r="G58" s="14"/>
       <c r="H58" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I58" s="20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J58" s="14"/>
       <c r="K58" s="20"/>
@@ -2791,10 +2803,10 @@
       <c r="F59" s="20"/>
       <c r="G59" s="14"/>
       <c r="H59" s="20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I59" s="20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J59" s="14"/>
       <c r="K59" s="20"/>
@@ -2808,10 +2820,10 @@
       <c r="F60" s="20"/>
       <c r="G60" s="14"/>
       <c r="H60" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I60" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J60" s="14"/>
       <c r="K60" s="20"/>
@@ -2822,15 +2834,15 @@
       <c r="C61" s="20"/>
       <c r="D61" s="14"/>
       <c r="E61" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F61" s="20"/>
       <c r="G61" s="14"/>
       <c r="H61" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I61" s="20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J61" s="14"/>
       <c r="K61" s="20"/>
@@ -2841,15 +2853,15 @@
       <c r="C62" s="20"/>
       <c r="D62" s="14"/>
       <c r="E62" s="20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F62" s="20"/>
       <c r="G62" s="14"/>
       <c r="H62" s="20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I62" s="20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J62" s="14"/>
       <c r="K62" s="20"/>
@@ -2885,11 +2897,11 @@
         <v>9</v>
       </c>
       <c r="B65" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C65" s="24"/>
       <c r="D65" s="25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E65" s="24"/>
       <c r="F65" s="24"/>
@@ -2900,7 +2912,7 @@
         <v>1</v>
       </c>
       <c r="K65" s="24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2932,7 +2944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2950,67 +2962,67 @@
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" thickBot="1">
       <c r="A1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="C2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>18</v>
-      </c>
       <c r="D2" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="F2" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="G2" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="H2" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="33" t="s">
-        <v>25</v>
-      </c>
       <c r="I2" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75">
       <c r="A3" s="34"/>
       <c r="B3" s="34"/>
       <c r="C3" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="34"/>
       <c r="E3" s="36"/>
@@ -3018,14 +3030,14 @@
       <c r="G3" s="34"/>
       <c r="H3" s="34"/>
       <c r="I3" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75">
       <c r="A4" s="34"/>
       <c r="B4" s="34"/>
       <c r="C4" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="34"/>
       <c r="E4" s="36"/>
@@ -3203,7 +3215,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3214,40 +3226,40 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75">
       <c r="A1" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="37" t="s">
+      <c r="F1" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="37" t="s">
+      <c r="G1" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="H1" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="15" t="s">
-        <v>38</v>
-      </c>
       <c r="I1" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J1" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K1" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="37" t="s">
         <v>13</v>
-      </c>
-      <c r="L1" s="37" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16.5" thickBot="1">
@@ -3259,7 +3271,7 @@
       <c r="F2" s="38"/>
       <c r="G2" s="38"/>
       <c r="H2" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I2" s="38"/>
       <c r="J2" s="40"/>
@@ -3268,61 +3280,61 @@
     </row>
     <row r="3" spans="1:12" ht="31.5">
       <c r="A3" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="33" t="s">
+      <c r="K3" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="33" t="s">
         <v>24</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="33" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75">
       <c r="A4" s="34"/>
       <c r="B4" s="34"/>
       <c r="C4" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="34"/>
       <c r="E4" s="34"/>
       <c r="F4" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J4" s="36"/>
       <c r="K4" s="34"/>
@@ -3484,6 +3496,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="G1:G2"/>
@@ -3491,24 +3514,13 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3524,75 +3536,75 @@
   <sheetData>
     <row r="1" spans="1:8" ht="16.5" thickBot="1">
       <c r="A1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>10</v>
-      </c>
       <c r="E1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
       <c r="A2" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="C2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>18</v>
-      </c>
       <c r="D2" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="G2" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="33" t="s">
-        <v>25</v>
-      </c>
       <c r="H2" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="31.5" customHeight="1">
       <c r="A3" s="34"/>
       <c r="B3" s="34"/>
       <c r="C3" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="34"/>
       <c r="E3" s="34"/>
       <c r="F3" s="34"/>
       <c r="G3" s="34"/>
       <c r="H3" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75">
       <c r="A4" s="34"/>
       <c r="B4" s="34"/>
       <c r="C4" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="34"/>
       <c r="E4" s="34"/>
@@ -3754,7 +3766,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3769,10 +3781,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1">
@@ -3781,10 +3793,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3793,79 +3805,79 @@
     </row>
     <row r="5" spans="1:5" ht="15.75">
       <c r="A5" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="17"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5">
+    <row r="6" spans="1:5" ht="15.75">
       <c r="A6" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="17"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="16.5">
+    <row r="7" spans="1:5" ht="15.75">
       <c r="A7" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="17"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="16.5">
+    <row r="8" spans="1:5" ht="15.75">
       <c r="A8" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75">
+      <c r="A9" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" ht="16.5">
-      <c r="A9" s="17" t="s">
+      <c r="B9" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75">
+      <c r="A10" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" ht="16.5">
-      <c r="A10" s="17" t="s">
+      <c r="B10" s="17" t="s">
         <v>46</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>47</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" ht="63">
       <c r="A11" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75">
+      <c r="A12" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" ht="16.5">
-      <c r="A12" s="17" t="s">
+      <c r="B12" s="17" t="s">
         <v>50</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>51</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" ht="47.25">
       <c r="A13" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>53</v>
-      </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" ht="16.5">
+    <row r="14" spans="1:5">
       <c r="E14" s="3"/>
     </row>
   </sheetData>
